--- a/1003_page2_tables.xlsx
+++ b/1003_page2_tables.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Raw_Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ANALISIS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PRODUCTO_TERMINADO" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CONTINUACION" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2808,1191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="2" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="2" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="13" max="13"/>
+    <col width="2" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="2" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="2" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ANALISIS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>HOY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>HOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>BRIX</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PZA</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>BRIX</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PZA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>COLOR</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JUGO DESMENUZADO TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JUGO ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JUGO DILUIDO TOTAL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>15,505</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JUGO DEL DIFUSOR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>JUGO RESIDUAL TOTAL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>JUGO ALCALIZADO</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>17,547</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JUGO CLARIFICADO MEZCLA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>15,586</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>JUGO FILTRADO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JUGO FILTRADO MEZCLA FILTRO BANDA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CACHAZA TOTAL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>.82</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MELADURA CRUDA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>67.51</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>15,728</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MELADURA CLARIFICADA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>67.46</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>58.46</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>16,419</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MASA TACH.CONT."A"</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MIEL "A"</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CAIDA PZA. MASA "A"</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13.48</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MASA TACH.CONT."B"</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MIEL "B"</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.73</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>55.31</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>45.18</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CAIDA PZA. MASA "B"</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MAGMA B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MASA TACH.CONT."C"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>55.13</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>56.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MIEL FINAL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CAIDA PZA. MASA "C"</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAGMA "C" (MINGLER)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SEMILLA "A"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SEMILLA "B"</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SEMILLA "C"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>60.77</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LICOR FUNDIDO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LICOR PERCOLADO</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>65.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>64.11</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SIROPE 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SIROPE 2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>70.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RUN OFF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>70.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,2361 +4003,1263 @@
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="2" customWidth="1" min="11" max="11"/>
+    <col width="2" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="2" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="2" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="20" max="20"/>
+    <col width="2" customWidth="1" min="21" max="21"/>
+    <col width="2" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>* * *P R O D U C T O T E R M I N A D O (A Z U C A R)* * *</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TOTAL QQ CRUDA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TOTAL QQ ESTAN.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TOTAL QQ REFIN.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>QQ PRODUCIDOS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>AZ. EQUIV. (MIEL)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>AZ. PMR</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>TOTAL QUINTALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ESTANDAR/DIA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20,202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5,600</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11,550</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>37,352</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>37,352</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HOY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26,059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15,196</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>41,850</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>41,850</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,724,090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>121,503</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>810,022</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2,655,615</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2,655,615</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="14" max="14"/>
+    <col width="2" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="17" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="2" customWidth="1" min="19" max="19"/>
+    <col width="11" customWidth="1" min="20" max="20"/>
+    <col width="2" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ANALISIS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HOY</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+          <t>DESCRIPCION</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quintales</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>% HUM.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>% CEN.</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>% POL.</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>COLOR</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Mg/kg Vit."A"</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>T. GRANO</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>% C.V</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>TEMP. ºC.</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>SED.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CRUDA DE "B"</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13,144</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>.196</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>.226</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1,334</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>HASTA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>HOY</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>BRIX</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PZA</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>BRIX</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>PZA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>COLOR</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>GR</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>JUGO DESMENUZADO TOTAL</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1,542,248</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>.156</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>.164</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1,142</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>.12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JUGO ABSOLUTO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.50</t>
+          <t>CRUDA EXPORTACION 50 KG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12,915</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14.27</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>86.48</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>16.04</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>13.81</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>86.09</t>
+          <t>.056</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>.126</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>.08</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>42.58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JUGO DILUIDO TOTAL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.23</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>173,873</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>86.77</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>13.18</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>86.23</t>
+          <t>.057</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>.113</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>622</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>15,505</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>4.47</t>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>.08</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>40.16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JUGO DEL DIFUSOR</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>83.38</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>6.29</t>
+          <t>ESTANDAR 50 KG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>99.75</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JUGO RESIDUAL TOTAL</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.95</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>112,410</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>78.97</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>77.30</t>
+          <t>.031</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>.028</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>39.66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JUGO ALCALIZADO</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>17,547</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>7.75</t>
+          <t>ESTANDAR 40 KG (20X2)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JUGO CLARIFICADO MEZCLA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.88</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5,031</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>87.03</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>12.14</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>86.81</t>
+          <t>.031</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>.008</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>625</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>15,586</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>4.03</t>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>30.08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUGO FILTRADO</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>11.44</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>84.78</t>
+          <t>ESTANDARD 50 KG (5 X10)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JUGO FILTRADO MEZCLA FILTRO BANDA</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>85.83</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4,062</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>.036</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>.052</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>38.53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CACHAZA TOTAL</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>.82</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1.88</t>
+          <t>REF. 3 GRAMOS (12KG)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MELADURA CRUDA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>68.16</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>59.38</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>67.51</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>58.25</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>86.30</t>
+          <t>.032</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>.008</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>727</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>15,728</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>6.24</t>
+          <t>23.22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MELADURA CLARIFICADA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>67.25</t>
+          <t>REF. PAIS 50 KG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,587</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>58.70</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>87.28</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>67.46</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>58.46</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>86.66</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>16,419</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>4.58</t>
+          <t>.033</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>.008</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>32.52</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MASA TACH.CONT."A"</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.51</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21,059</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>88.68</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>80.73</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>87.93</t>
+          <t>.031</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>.009</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>29.53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MIEL "A"</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>76.07</t>
+          <t>REF. INDUSTRIAL 50 KG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11,598</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>57.21</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>75.20</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>77.16</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>57.51</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>74.54</t>
+          <t>.020</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>.002</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>34.84</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAIDA PZA. MASA "A"</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>13.39</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>311,780</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>.023</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>.003</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>32.00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MASA TACH.CONT."B"</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>74.38</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>78.94</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>79.78</t>
+          <t>REF. EXPORTACION 50 KG</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MIEL "B"</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>84.48</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>403,193</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>46.73</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>55.31</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>45.18</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>55.71</t>
+          <t>.023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>.002</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>32.42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CAIDA PZA. MASA "B"</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>23.63</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>24.07</t>
+          <t>CRUDO INDUSTRIAL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MAGMA B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>98.98</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7,969</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>99.21</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>95.87</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>96.63</t>
+          <t>.049</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>.125</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>27.34</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>.08</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>42.50</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MASA TACH.CONT."C"</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>97.81</t>
+          <t>REF. 40 KG (20X2)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,011</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>55.64</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>56.88</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>96.87</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>55.13</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>56.91</t>
+          <t>.031</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>.006</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>32.83</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MIEL FINAL</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>85.78</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>38,797</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.14</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>33.97</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>85.07</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>29.13</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>13.79</t>
+          <t>.030</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>.006</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>30.56</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CAIDA PZA. MASA "C"</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>22.91</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>22.67</t>
+          <t>REF. 40 KG (50X800)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MAGMA "C" (MINGLER)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>94.43</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>33,103</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>82.72</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>88.22</t>
+          <t>.030</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>.006</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>30.35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SEMILLA "A"</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.96</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>83.40</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>82.50</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>91.44</t>
+          <t>REF. 50 KG (5 X 10)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SEMILLA "B"</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>91.32</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2,021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>86.73</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>87.01</t>
+          <t>.034</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>.009</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>27.29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SEMILLA "C"</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>60.85</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>65.03</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>60.77</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>64.94</t>
+          <t>REF. 3 GRAMOS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LICOR FUNDIDO</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>66.73</t>
+          <t>HASTA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>42</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>66.56</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>98.96</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>LICOR PERCOLADO</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>65.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>65.01</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>98.67</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>64.11</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SIROPE 1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>75.29</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>74.06</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>98.36</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>70.51</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>68.51</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>97.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SIROPE 2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>70.82</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>69.43</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>71.47</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>68.44</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>95.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>RUN OFF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>70.50</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>68.78</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>97.56</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>75.02</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>69.37</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>* * *P R O D U C T O T E R M I N A D O (A Z U C A R)* * *</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TOTAL QQ CRUDA</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TOTAL QQ ESTAN.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>TOTAL QQ REFIN.</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>QQ PRODUCIDOS</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>AZ. EQUIV. (MIEL)</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>AZ. PMR</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>TOTAL QUINTALES</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ESTANDAR/DIA</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>20,202</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5,600</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>11,550</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>37,352</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>37,352</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>HOY</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>26,059</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>15,196</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>41,850</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>41,850</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1,724,090</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>121,503</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>810,022</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2,655,615</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>2,655,615</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DESCRIPCION</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Quintales</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>% HUM.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>% CEN.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>% POL.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>COLOR</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Mg/kg Vit."A"</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>T. GRANO</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>% C.V</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>TEMP. ºC.</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>SED.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CRUDA DE "B"</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>13,144</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>.196</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>.226</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>98.72</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1,334</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1,542,248</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>.156</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>.164</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1,142</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>692</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>25.89</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>CRUDA EXPORTACION 50 KG</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>12,915</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>.056</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>.126</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>736</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>22.57</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>.08</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>42.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>173,873</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>.057</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>.113</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>798</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>622</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>29.04</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>.08</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>40.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ESTANDAR 50 KG</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>112,410</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>.031</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>.028</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>99.74</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>671</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>39.66</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ESTANDAR 40 KG (20X2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>5,031</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>.031</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>.008</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>99.77</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>11.35</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>28.66</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>30.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ESTANDARD 50 KG (5 X10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4,062</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>.036</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>.052</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>99.71</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>25.28</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>38.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>REF. 3 GRAMOS (12KG)</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>.032</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>.008</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+          <t>.160</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>.005</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>99.87</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>727</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>23.22</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>REF. PAIS 50 KG</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1,587</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>.033</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>.008</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>32.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>21,059</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>.031</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>.009</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>99.86</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>667</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>28.27</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>29.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>REF. INDUSTRIAL 50 KG</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>11,598</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>.020</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>.002</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>99.94</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>665</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>34.84</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>311,780</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>.023</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>.003</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>99.92</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>39.99</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>REF. EXPORTACION 50 KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>403,193</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>.023</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>.002</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>99.93</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>577</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>33.49</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>32.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>CRUDO INDUSTRIAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>7,969</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>.049</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>.125</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>99.37</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>669</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>27.34</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>.08</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>42.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>REF. 40 KG (20X2)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2,011</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>.031</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>.006</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>99.86</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>35.57</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>32.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>38,797</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>.030</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>.006</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>99.86</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>REF. 40 KG (50X800)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>33,103</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>.030</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>.006</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>639</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>29.53</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>30.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>REF. 50 KG (5 X 10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2,021</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>.034</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>.009</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>99.86</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>732</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>27.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>REF. 3 GRAMOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>HASTA</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>.160</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>.005</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>38</t>
         </is>
